--- a/medicine/Enfance/Lee_Soyoung/Lee_Soyoung.xlsx
+++ b/medicine/Enfance/Lee_Soyoung/Lee_Soyoung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lee Soyoung est une autrice-illustratrice sud-coréenne de livres pour la jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lee Soyung a obtenu une licence de design à l’Université Nationale de Séoul, puis le Diplôme supérieur des arts appliqués (DSAA) de l’École nationale supérieure des arts appliqués et des métiers d'art de Paris. Après avoir fini ses études, elle a travaillé comme graphiste pendant cinq ans en Corée du Sud[1].
-Avec son album Au-delà des ombres (original : geurimja neomeo), elle a été retenue pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne 2014[2]. Son livre, Ian, le garçon bleu (original : paran ai ian), a été sélectionné pour le catalogue 2018 de livres pour enfants en situation de handicap de l’Union Internationale du livre de jeunesse (IBBY). Fantôme de cheminée (original : gulttuk gwisin) et L’été (original : yeoreum,) ont été respectivement présentés comme candidats coréens pour les éditions 2019[3] et 2021[2] de la Biennale d'illustration de Bratislava. L’été (original : yeoreum,) a également été retenu pour la sélection White Ravens 2021. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee Soyung a obtenu une licence de design à l’Université Nationale de Séoul, puis le Diplôme supérieur des arts appliqués (DSAA) de l’École nationale supérieure des arts appliqués et des métiers d'art de Paris. Après avoir fini ses études, elle a travaillé comme graphiste pendant cinq ans en Corée du Sud.
+Avec son album Au-delà des ombres (original : geurimja neomeo), elle a été retenue pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne 2014. Son livre, Ian, le garçon bleu (original : paran ai ian), a été sélectionné pour le catalogue 2018 de livres pour enfants en situation de handicap de l’Union Internationale du livre de jeunesse (IBBY). Fantôme de cheminée (original : gulttuk gwisin) et L’été (original : yeoreum,) ont été respectivement présentés comme candidats coréens pour les éditions 2019 et 2021 de la Biennale d'illustration de Bratislava. L’été (original : yeoreum,) a également été retenu pour la sélection White Ravens 2021. 
 </t>
         </is>
       </c>
@@ -545,24 +559,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Autrice-illustratrice
-Courage, petite taupe, éditions des éléphants (France), 2023, ISBN, 978-2372731447[1]
+          <t>Autrice-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Courage, petite taupe, éditions des éléphants (France), 2023, ISBN, 978-2372731447
 Bonjour, mon Loulou (original : annyeong naui ruru), Sigong Junior (Corée du Sud), 2022,  (ISBN 9791169252959)
-Ce n’est pas grave, mon crapaud, éditions des éléphants (France), 2021[4],  (ISBN 978-2-37273-100-3)
+Ce n’est pas grave, mon crapaud, éditions des éléphants (France), 2021,  (ISBN 978-2-37273-100-3)
 괜찮아, 나의 두꺼비야, Gloyeon (Corée du Sud), 2022,  (ISBN 9788992704915)
 沒關係! 我親愛的小蛤蟆, 新蕾出版社 (Chine), 2023,  (ISBN 9787530774465)
 Quand arrive l’hiver (original : gyeoul byeol), Gloyeon (Corée du Sud), 2021,  (ISBN 9788992704885)
-Quand arrive l’hiver, éditions de l’élan vert (France), 2022,  (ISBN 9782844556943)[5]
-Soyung Lee, Ici, ensemble et maintenant, Éditions Thierry Magnier, 2020 (ISBN 979-10-352-0326-9)[6]
+Quand arrive l’hiver, éditions de l’élan vert (France), 2022,  (ISBN 9782844556943)
+Soyung Lee, Ici, ensemble et maintenant, Éditions Thierry Magnier, 2020 (ISBN 979-10-352-0326-9)
 여기, 지금, 함께, SunTree Books (Corée du Sud), 2021,  (ISBN 9788962682151)
 L’été, (original : yeoreum,), Gloyeon (Corée du Sud), 2020,  (ISBN 9788992704762)
 Le vent (original : baram), NC Cultural Foundation (Corée du Sud), 2020,  (ISBN 9791196368210)
 Fantôme de cheminée (original : gulttuk gwisin), NCSOFT (Corée du Sud), 2019,  (ISBN 9791187286103)
 Ian, le garçon bleu (original : paran ai ian), Sigong Junior (Corée du Sud), 2017,  (ISBN 9788952785930)
-蓝孩儿小安, 北京联合出版公司 (Chine), 2021[7],  (ISBN 9787559654052)
-Au-delà des ombres (original : geurimja neomeo), Gloyeon (Corée du Sud), 2014,  (ISBN 9788992704564)
-Illustratrice
-La maison d’un peintre : musée d’art Park No-soo (original : hwagaui jip, parknosoo misulgwan), texte de Song Hee-Kyeong, Yeonrip Seoga (Corée du Sud), 2023,  (ISBN 9791197758676)
+蓝孩儿小安, 北京联合出版公司 (Chine), 2021,  (ISBN 9787559654052)
+Au-delà des ombres (original : geurimja neomeo), Gloyeon (Corée du Sud), 2014,  (ISBN 9788992704564)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lee_Soyoung</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lee_Soyoung</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La maison d’un peintre : musée d’art Park No-soo (original : hwagaui jip, parknosoo misulgwan), texte de Song Hee-Kyeong, Yeonrip Seoga (Corée du Sud), 2023,  (ISBN 9791197758676)
 La jalousie toute rouge (original : saeppalgan jiltu), texte de Cho Zion, Noransangsang (Corée du Sud), 2023,  (ISBN 9791191667899)
 Nous, treize ans (original : yeolse sal urineun), texte de Moon Kyoung Min, WooriSchool (Corée du Sud), 2023,  (ISBN 9791167550903)
 Un hiver perdu (original : ireobeorin gyeoul), texte de Jeon Chaelin, Goraebaetsok (Corée du Sud), 2022,  (ISBN 9791190747912)
@@ -576,36 +629,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lee_Soyoung</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lee_Soyoung</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023 : Lauréate du prix Tatoulu Jaune (catégorie : albums à partir de 5 ans), pour Ce n'est pas grave, mon crapaud[8],[9]
-2023 : Lauréate du prix Livrentête (catégorie : albums à partir de 5 ans), pour Ce n'est pas grave, mon crapaud[10]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023 : Lauréate du prix Tatoulu Jaune (catégorie : albums à partir de 5 ans), pour Ce n'est pas grave, mon crapaud,
+2023 : Lauréate du prix Livrentête (catégorie : albums à partir de 5 ans), pour Ce n'est pas grave, mon crapaud
 2022 : Finaliste de AOI World Illustration Awards, pour Quand arrive l’hiver (original : gyeoul byeol)
-2021 : Prix Millepages, pour Ce n'est pas grave, mon crapaud[11]
+2021 : Prix Millepages, pour Ce n'est pas grave, mon crapaud
 2021 : Sélection White Ravens, pour L’été (original : yeoreum,)
 2021 : Candidate coréenne à la Biennale d'illustration de Bratislava, pour L’été (original : yeoreum,)
 2019 : Candidate coréenne à la Biennale d’illustration de Bratislava, pour Fantôme de cheminée (original : gulttuk gwisin)
